--- a/docs/assets/tabulados/R6_horario.xlsx
+++ b/docs/assets/tabulados/R6_horario.xlsx
@@ -6,8 +6,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Horario" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Horario'!$A$1:$P$3</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -159,8 +162,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="0.0&quot;%&quot;"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -168,16 +174,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4E79"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,12 +207,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,161 +536,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="true">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="7.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="13.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="15.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="19.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="9.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="12.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="22.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="8.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="8.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="8.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>

--- a/docs/assets/tabulados/R6_horario.xlsx
+++ b/docs/assets/tabulados/R6_horario.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">horario</t>
   </si>
@@ -68,91 +68,88 @@
     <t xml:space="preserve">AM</t>
   </si>
   <si>
-    <t xml:space="preserve">3.552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.313</t>
+    <t xml:space="preserve">4.324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19,98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:08:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17,94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.108</t>
   </si>
   <si>
     <t xml:space="preserve">00:01:39</t>
   </si>
   <si>
-    <t xml:space="preserve">00:00:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:08:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:34</t>
+    <t xml:space="preserve">00:00:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:16</t>
   </si>
   <si>
     <t xml:space="preserve">00:08:15</t>
@@ -671,43 +668,43 @@
         <v>34</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
